--- a/Chocolate Sales.xlsx
+++ b/Chocolate Sales.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Media\Documents\Projects\Chocolate Store Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A93534-F4CA-40CF-8A6B-56996E625545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D838D792-CADD-4701-A5A7-06D4238AE81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Chocolate Sales (Raw)" sheetId="1" r:id="rId1"/>
     <sheet name="Cleaned Data" sheetId="2" r:id="rId2"/>
     <sheet name="PivotTable" sheetId="3" r:id="rId3"/>
-    <sheet name="Dashboard" sheetId="5" r:id="rId4"/>
+    <sheet name="Dashboard" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cleaned Data'!$A$1:$I$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="358">
   <si>
     <t>Sales Person,Geography,Product,Amount,Units,cost per unit,Cost,Profit,profit %</t>
   </si>
@@ -1109,19 +1109,13 @@
     <t>Sum of Amount</t>
   </si>
   <si>
-    <t xml:space="preserve"> Chocolate Sales Dashboard</t>
-  </si>
-  <si>
     <t>Total Sales</t>
   </si>
   <si>
     <t>Total Profit</t>
   </si>
   <si>
-    <t>Top Product</t>
-  </si>
-  <si>
-    <t>Top Products by Country</t>
+    <t>Chocolate Sales Dashboard</t>
   </si>
 </sst>
 </file>
@@ -1131,9 +1125,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R&quot;* #,##0.00_-;\-&quot;R&quot;* #,##0.00_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]#,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="_-\$\ #,##0.00_-;\-&quot;R&quot;* #,##0.00_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,8 +1264,23 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="5"/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1279,58 +1288,13 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="5"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF7030A0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.14999847407452621"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1518,18 +1482,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF16113A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FF272953"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF16113A"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1644,96 +1614,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1780,7 +1660,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1791,88 +1671,49 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="18" fillId="35" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="20" fillId="35" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="34" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="22" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1935,6 +1776,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF272953"/>
+      <color rgb="FF16113A"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFFFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1947,1986 +1796,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="4"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Chocolate Sales.xlsx]PivotTable!PivotTable1</c:name>
-    <c:fmtId val="1"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total Chocolate</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Sales Per Sales Person</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21844444444444444"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18072003499562556"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.7718029308836396"/>
-          <c:h val="0.42911453776611247"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PivotTable!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>PivotTable!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Barr Faughny</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Brien Boise</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Carla Molina</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Ches Bonnell</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Curtice Advani</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gigi Bohling</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Gunar Cockshoot</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Husein Augar</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Oby Sorrel</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ram Mahesh</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PivotTable!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>123949</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98084</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98210</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>149975</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>130697</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>165725</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>106834</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>132580</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>83216</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>151599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3729-4884-AC85-57F796944C9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1515236656"/>
-        <c:axId val="1515229456"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1515236656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-ZA"/>
-                  <a:t>Sales Person</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.42019094488188979"/>
-              <c:y val="0.87044181977252866"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1515229456"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1515229456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-ZA"/>
-                  <a:t>Total Sales (Dollars)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1515236656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Chocolate Sales.xlsx]PivotTable!PivotTable2</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total Profit Per</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Sales Person</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.29790966754155729"/>
-          <c:y val="3.2407407407407406E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.17603937007874015"/>
-          <c:y val="0.17171296296296296"/>
-          <c:w val="0.79340507436570429"/>
-          <c:h val="0.42448490813648293"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PivotTable!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>PivotTable!$A$22:$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Gigi Bohling</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ram Mahesh</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Ches Bonnell</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Husein Augar</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Barr Faughny</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Curtice Advani</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Carla Molina</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Gunar Cockshoot</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Brien Boise</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Oby Sorrel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PivotTable!$B$22:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>135191</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>101064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>89427</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85109</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69419</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60450</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60065</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>52771</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E2E-4AC6-AC16-31B0B78F7393}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="619562752"/>
-        <c:axId val="619560832"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="619562752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-ZA"/>
-                  <a:t>Sales Person</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.42908902012248468"/>
-              <c:y val="0.87044181977252866"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619560832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="619560832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-ZA"/>
-                  <a:t>Total Profit (Dollars)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="619562752"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="7"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Chocolate Sales.xlsx]PivotTable!PivotTable4</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>Total Sales Per Product</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PivotTable!$B$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PivotTable!$A$48:$A$70</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>50% Dark Bites</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70% Dark Bites</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85% Dark Bars</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99% Dark &amp; Pure</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>After Nines</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Almond Choco</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Baker's Choco Chips</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Caramel Stuffed Bars</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Choco Coated Almonds</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Drinking Coco</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Eclairs</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Fruit &amp; Nut Bars</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Manuka Honey Choco</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Milk Bars</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Mint Chip Choco</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Orange Choco</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Organic Choco Syrup</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Peanut Butter Cubes</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Raspberry Choco</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Smooth Sliky Salty</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Spicy Special Slims</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>White Choc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PivotTable!$B$48:$B$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1044</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1956</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2052</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1566</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2142</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3207</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2301</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1752</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1812</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2976</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1881</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2154</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2196</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2982</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1854</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1533</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1683</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1308</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-93A9-46A4-8CA7-6EDCCFA263CD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1050280047"/>
-        <c:axId val="1050280527"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1050280047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1050280527"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1050280527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1050280047"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3953,10 +1822,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3964,7 +1830,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Total Sales by Country</a:t>
             </a:r>
           </a:p>
@@ -3985,10 +1855,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4094,22 +1961,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>India</c:v>
+                  <c:v>Australia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>New Zealand</c:v>
+                  <c:v>India</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>USA</c:v>
+                  <c:v>New Zealand</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Australia</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4121,22 +1988,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>252469</c:v>
+                  <c:v>168679</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>237944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218813</c:v>
+                  <c:v>252469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189434</c:v>
+                  <c:v>218813</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>173530</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168679</c:v>
+                  <c:v>189434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,10 +2043,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4187,7 +2051,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-ZA"/>
+                  <a:rPr lang="en-ZA">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Country</a:t>
                 </a:r>
               </a:p>
@@ -4208,10 +2076,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4246,10 +2111,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4296,10 +2158,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4307,7 +2166,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-ZA"/>
+                  <a:rPr lang="en-ZA">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Total Sales (Dollars)</a:t>
                 </a:r>
               </a:p>
@@ -4328,10 +2191,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4360,10 +2220,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4398,7 +2255,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="272953"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -4442,22 +2299,22 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Chocolate Sales.xlsx]PivotTable!PivotTable4</c:name>
-    <c:fmtId val="27"/>
+    <c:fmtId val="33"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -4467,12 +2324,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4480,15 +2334,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-ZA" b="1">
+              <a:rPr lang="en-US" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Total Sales Per Product</a:t>
+              <a:t>Top Products</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4506,12 +2357,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4528,7 +2376,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4554,12 +2402,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:srgbClr val="272953"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4569,60 +2414,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -4634,123 +2426,377 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivotTable!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="272953"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivotTable!$A$48:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Eclairs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70% Dark Bites</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manuka Honey Choco</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic Choco Syrup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caramel Stuffed Bars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivotTable!$B$48:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7852-4FAB-9618-F7E514B6250D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1641256208"/>
+        <c:axId val="1641244208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1641256208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641244208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1641244208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1641256208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="272953"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Chocolate Sales.xlsx]PivotTable!PivotTable2</c:name>
+    <c:fmtId val="17"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Profit by Sales Person</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
       <c:pivotFmt>
-        <c:idx val="4"/>
+        <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4814,7 +2860,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PivotTable!$B$47</c:f>
+              <c:f>PivotTable!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4825,7 +2871,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4835,156 +2881,84 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PivotTable!$A$48:$A$70</c:f>
+              <c:f>PivotTable!$A$22:$A$32</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50% Dark Bites</c:v>
+                  <c:v>Gigi Bohling</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70% Dark Bites</c:v>
+                  <c:v>Ram Mahesh</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85% Dark Bars</c:v>
+                  <c:v>Ches Bonnell</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99% Dark &amp; Pure</c:v>
+                  <c:v>Husein Augar</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>After Nines</c:v>
+                  <c:v>Barr Faughny</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Almond Choco</c:v>
+                  <c:v>Curtice Advani</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Baker's Choco Chips</c:v>
+                  <c:v>Carla Molina</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Caramel Stuffed Bars</c:v>
+                  <c:v>Gunar Cockshoot</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Choco Coated Almonds</c:v>
+                  <c:v>Brien Boise</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Drinking Coco</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Eclairs</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Fruit &amp; Nut Bars</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Manuka Honey Choco</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Milk Bars</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Mint Chip Choco</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Orange Choco</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Organic Choco Syrup</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Peanut Butter Cubes</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Raspberry Choco</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Smooth Sliky Salty</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Spicy Special Slims</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>White Choc</c:v>
+                  <c:v>Oby Sorrel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PivotTable!$B$48:$B$70</c:f>
+              <c:f>PivotTable!$B$22:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2022</c:v>
+                  <c:v>135191</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2802</c:v>
+                  <c:v>101064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1044</c:v>
+                  <c:v>99695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1956</c:v>
+                  <c:v>89427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2052</c:v>
+                  <c:v>85109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1566</c:v>
+                  <c:v>69419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2142</c:v>
+                  <c:v>60450</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3207</c:v>
+                  <c:v>60065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2301</c:v>
+                  <c:v>52771</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1752</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2331</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1812</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2976</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1881</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2154</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2196</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2982</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1854</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1533</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1683</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1308</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2106</c:v>
+                  <c:v>47974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4EF5-4209-AD17-8E5224FA0DF8}"/>
+              <c16:uniqueId val="{00000000-5450-4B8A-9B13-328A3865AB1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4996,13 +2970,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="136"/>
+        <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1050280047"/>
-        <c:axId val="1050280527"/>
+        <c:axId val="1641251408"/>
+        <c:axId val="1641249968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1050280047"/>
+        <c:axId val="1641251408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5032,10 +3006,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5045,7 +3016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1050280527"/>
+        <c:crossAx val="1641249968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5053,7 +3024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1050280527"/>
+        <c:axId val="1641249968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5091,10 +3062,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5104,7 +3072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1050280047"/>
+        <c:crossAx val="1641251408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5129,10 +3097,15 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="272953"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5150,13 +3123,14 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup/>
   </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -5168,7 +3142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5183,7 +3157,7 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[Chocolate Sales.xlsx]PivotTable!PivotTable5</c:name>
-    <c:fmtId val="7"/>
+    <c:fmtId val="12"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -5195,10 +3169,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5208,10 +3179,7 @@
             <a:r>
               <a:rPr lang="en-US" b="1">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Total Sales by Country</a:t>
@@ -5219,14 +3187,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32923421695257932"/>
-          <c:y val="4.8484848484848485E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5242,10 +3202,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5463,22 +3420,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>India</c:v>
+                  <c:v>Australia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Canada</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>New Zealand</c:v>
+                  <c:v>India</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>USA</c:v>
+                  <c:v>New Zealand</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>UK</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Australia</c:v>
+                  <c:v>USA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5490,29 +3447,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>252469</c:v>
+                  <c:v>168679</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>237944</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218813</c:v>
+                  <c:v>252469</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189434</c:v>
+                  <c:v>218813</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>173530</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>168679</c:v>
+                  <c:v>189434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4601-4EE1-B861-2D321BA8FDEB}"/>
+              <c16:uniqueId val="{00000000-A2CE-4C20-9051-636733619983}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5560,10 +3517,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5610,10 +3564,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5621,7 +3572,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-ZA"/>
+                  <a:rPr lang="en-ZA">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Total Sales (Dollars)</a:t>
                 </a:r>
               </a:p>
@@ -5642,10 +3597,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5674,10 +3626,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5711,9 +3660,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -5751,17 +3698,1100 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Chocolate Sales.xlsx]PivotTable!PivotTable4</c:name>
+    <c:fmtId val="37"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Top Products</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="272953"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="272953"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="272953"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivotTable!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="272953"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivotTable!$A$48:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Eclairs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70% Dark Bites</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manuka Honey Choco</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Organic Choco Syrup</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caramel Stuffed Bars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivotTable!$B$48:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD77-48F3-A270-92B53F8D97D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1641256208"/>
+        <c:axId val="1641244208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1641256208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641244208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1641244208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1641256208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Chocolate Sales.xlsx]PivotTable!PivotTable2</c:name>
+    <c:fmtId val="19"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Profit by Sales Person</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PivotTable!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PivotTable!$A$22:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Gigi Bohling</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ram Mahesh</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ches Bonnell</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Husein Augar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Barr Faughny</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Curtice Advani</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Carla Molina</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gunar Cockshoot</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Brien Boise</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oby Sorrel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PivotTable!$B$22:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>135191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69419</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52771</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88A1-43E8-80B0-EFF1CD539909}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1641251408"/>
+        <c:axId val="1641249968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1641251408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641249968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1641249968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641251408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="272953"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5795,8 +4825,42 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -5841,8 +4905,42 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -6390,7 +5488,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6594,22 +5692,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6714,8 +5813,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6847,19 +5946,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7899,7 +6999,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8103,22 +7203,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8223,8 +7324,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8356,19 +7457,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8908,114 +8010,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2" descr="Bar Graph depicting total chocolate sales">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E94DF3-570B-995F-D65F-18081B59CE52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3" descr="Bar Graph depicting total profit earned per sales person">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00B5E1A-9B59-EF42-55DA-4DE8FA7F28AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Bar Graph depicting total product sales per item">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF2E7D0-E814-D2ED-3E03-913C71F65F26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>614362</xdr:colOff>
       <xdr:row>100</xdr:row>
@@ -9044,7 +8038,79 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>833437</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397FC3CC-8FC9-57E8-9712-B6C4688ADDF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F61866-1F2F-E17F-738E-088273D18E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9058,22 +8124,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" descr="Bar Graph depicting total product sales per item">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087B5223-FA61-415A-87B3-CEC504AA8984}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB98F0BC-E196-433D-8585-21379066960A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9095,23 +8161,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3F4864-1E2E-48AD-99D6-7A1F190BB73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18100B8E-7501-4951-A8C4-667D17456828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9126,6 +8192,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95689188-3B49-4ED0-90F6-3CE14ADF341B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12971,30 +12075,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A90FC021-FDB5-44E5-86E2-10F7F70849B0}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A98:B105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="7"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
         <item x="4"/>
+        <item x="6"/>
+        <item x="8"/>
         <item x="2"/>
-        <item x="5"/>
+        <item x="9"/>
         <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
@@ -13002,29 +12101,48 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="11">
     <i>
-      <x v="2"/>
+      <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="6"/>
     </i>
     <i>
-      <x/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -13034,28 +12152,34 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Total Sales (Dollars)" fld="3" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
+  <formats count="4">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
-          <reference field="4294967294" count="1" selected="0">
+          <reference field="4294967294" count="1">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
-    </chartFormat>
-  </chartFormats>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13069,181 +12193,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A259EF60-23C8-4145-90DA-C00B70C48E8A}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C72:D99" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="7">
-        <item x="4"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="0"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="23">
-        <item x="8"/>
-        <item x="0"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="21"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="18"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="27">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB2F99CE-6ECB-497E-A748-4CA2198BBE53}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DB2F99CE-6ECB-497E-A748-4CA2198BBE53}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A72:B79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -13356,38 +12306,47 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12D4108A-F0F2-48E4-AC04-582B629F690D}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
-  <location ref="A47:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12D4108A-F0F2-48E4-AC04-582B629F690D}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
+  <location ref="A47:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="23">
-        <item x="8"/>
+        <item h="1" x="8"/>
         <item x="0"/>
-        <item x="17"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="21"/>
+        <item h="1" x="17"/>
+        <item h="1" x="15"/>
+        <item h="1" x="7"/>
+        <item h="1" x="2"/>
+        <item h="1" x="21"/>
         <item x="19"/>
-        <item x="1"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
         <item x="9"/>
-        <item x="14"/>
+        <item h="1" x="14"/>
         <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="13"/>
+        <item h="1" x="11"/>
+        <item h="1" x="10"/>
+        <item h="1" x="13"/>
         <item x="18"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="20"/>
-        <item x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="16"/>
+        <item h="1" x="6"/>
+        <item h="1" x="20"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
@@ -13400,72 +12359,21 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="6">
     <i>
-      <x/>
+      <x v="10"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
       <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
     </i>
     <i>
       <x v="16"/>
     </i>
     <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -13478,7 +12386,7 @@
     <dataField name="Sum of Units" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="33" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13487,7 +12395,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="27" format="4" series="1">
+    <chartFormat chart="37" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13509,8 +12417,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{446798EA-AE40-41F9-A16C-C5F807CBA1DD}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{446798EA-AE40-41F9-A16C-C5F807CBA1DD}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A38:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -13587,8 +12495,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A21:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -13813,8 +12721,17 @@
   <dataFields count="1">
     <dataField name="Sum of Profit" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="17" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13836,26 +12753,22 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A1:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A90FC021-FDB5-44E5-86E2-10F7F70849B0}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="A98:B105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="7"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="3"/>
         <item x="1"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
@@ -13863,19 +12776,12 @@
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -13894,18 +12800,6 @@
     <i>
       <x v="5"/>
     </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -13914,35 +12808,9 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Total Sales (Dollars)" fld="3" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Sum of Amount" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="11">
+  <chartFormats count="2">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -13952,122 +12820,11 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="1">
+    <chartFormat chart="12" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -25880,16 +24637,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D296"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -26015,7 +24772,7 @@
       <c r="A22" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22">
         <v>135191</v>
       </c>
       <c r="C22"/>
@@ -26024,7 +24781,7 @@
       <c r="A23" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23">
         <v>101064</v>
       </c>
       <c r="C23"/>
@@ -26033,7 +24790,7 @@
       <c r="A24" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24">
         <v>99695</v>
       </c>
       <c r="C24"/>
@@ -26042,7 +24799,7 @@
       <c r="A25" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25">
         <v>89427</v>
       </c>
       <c r="C25"/>
@@ -26051,7 +24808,7 @@
       <c r="A26" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26">
         <v>85109</v>
       </c>
       <c r="C26"/>
@@ -26060,7 +24817,7 @@
       <c r="A27" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27">
         <v>69419</v>
       </c>
       <c r="C27"/>
@@ -26069,7 +24826,7 @@
       <c r="A28" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28">
         <v>60450</v>
       </c>
       <c r="C28"/>
@@ -26078,7 +24835,7 @@
       <c r="A29" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29">
         <v>60065</v>
       </c>
       <c r="C29"/>
@@ -26087,7 +24844,7 @@
       <c r="A30" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30">
         <v>52771</v>
       </c>
       <c r="C30"/>
@@ -26096,7 +24853,7 @@
       <c r="A31" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31">
         <v>47974</v>
       </c>
       <c r="C31"/>
@@ -26105,7 +24862,7 @@
       <c r="A32" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32">
         <v>801165</v>
       </c>
       <c r="C32"/>
@@ -26217,10 +24974,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="B48" s="13">
-        <v>2022</v>
+        <v>331</v>
+      </c>
+      <c r="B48" s="12">
+        <v>2331</v>
       </c>
       <c r="C48"/>
     </row>
@@ -26228,578 +24985,353 @@
       <c r="A49" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="12">
         <v>2802</v>
       </c>
       <c r="C49"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B50" s="13">
-        <v>1044</v>
+        <v>335</v>
+      </c>
+      <c r="B50" s="12">
+        <v>2976</v>
       </c>
       <c r="C50"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="B51" s="13">
-        <v>1956</v>
+        <v>342</v>
+      </c>
+      <c r="B51" s="12">
+        <v>2982</v>
       </c>
       <c r="C51"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B52" s="13">
-        <v>2052</v>
+        <v>343</v>
+      </c>
+      <c r="B52" s="12">
+        <v>3207</v>
       </c>
       <c r="C52"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B53" s="13">
-        <v>1566</v>
+        <v>350</v>
+      </c>
+      <c r="B53" s="12">
+        <v>14298</v>
       </c>
       <c r="C53"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B54" s="13">
-        <v>2142</v>
-      </c>
+      <c r="B54"/>
       <c r="C54"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B55" s="13">
-        <v>3207</v>
-      </c>
+      <c r="B55"/>
       <c r="C55"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B56" s="13">
-        <v>2301</v>
-      </c>
+      <c r="B56"/>
       <c r="C56"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B57" s="13">
-        <v>1752</v>
-      </c>
+      <c r="B57"/>
       <c r="C57"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B58" s="13">
-        <v>2331</v>
-      </c>
+      <c r="B58"/>
       <c r="C58"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B59" s="13">
-        <v>1812</v>
-      </c>
+      <c r="B59"/>
       <c r="C59"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B60" s="13">
-        <v>2976</v>
-      </c>
+      <c r="B60"/>
       <c r="C60"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B61" s="13">
-        <v>1881</v>
-      </c>
+      <c r="B61"/>
       <c r="C61"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B62" s="13">
-        <v>2154</v>
-      </c>
+      <c r="B62"/>
       <c r="C62"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B63" s="13">
-        <v>2196</v>
-      </c>
+      <c r="B63"/>
       <c r="C63"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B64" s="13">
-        <v>2982</v>
-      </c>
+      <c r="B64"/>
       <c r="C64"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B65" s="13">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="B66" s="13">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B67" s="13">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B68" s="13">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B69" s="13">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="B70" s="13">
-        <v>45660</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B72" t="s">
         <v>354</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D72" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>333</v>
       </c>
       <c r="B73">
         <v>252469</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D73" s="13">
-        <v>252469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>317</v>
       </c>
       <c r="B74">
         <v>237944</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D74" s="13">
-        <v>237944</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>309</v>
       </c>
       <c r="B75">
         <v>218813</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D75" s="13">
-        <v>218813</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>312</v>
       </c>
       <c r="B76">
         <v>189434</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D76" s="13">
-        <v>189434</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>320</v>
       </c>
       <c r="B77">
         <v>173530</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D77" s="13">
-        <v>173530</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>323</v>
       </c>
       <c r="B78">
         <v>168679</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D78" s="13">
-        <v>168679</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>350</v>
       </c>
       <c r="B79">
         <v>1240869</v>
       </c>
-      <c r="C79" s="21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D79" s="13">
-        <v>16534</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80"/>
-      <c r="C80" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="D80" s="13">
-        <v>16114</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81"/>
-      <c r="C81" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="D81" s="13">
-        <v>14497</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82"/>
-      <c r="C82" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="D82" s="13">
-        <v>13755</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83"/>
-      <c r="C83" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="D83" s="13">
-        <v>12257</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84"/>
-      <c r="C84" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D84" s="13">
-        <v>11886</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85"/>
-      <c r="C85" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="D85" s="13">
-        <v>10465</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86"/>
-      <c r="C86" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="D86" s="13">
-        <v>10129</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87"/>
-      <c r="C87" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" s="13">
-        <v>8995</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88"/>
-      <c r="C88" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="D88" s="13">
-        <v>8827</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89"/>
-      <c r="C89" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D89" s="13">
-        <v>8288</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90"/>
-      <c r="C90" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D90" s="13">
-        <v>6867</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91"/>
-      <c r="C91" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="D91" s="13">
-        <v>6118</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92"/>
-      <c r="C92" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D92" s="13">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93"/>
-      <c r="C93" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="D93" s="13">
-        <v>4760</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94"/>
-      <c r="C94" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="D94" s="13">
-        <v>3584</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95"/>
-      <c r="C95" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D95" s="13">
-        <v>3402</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96"/>
-      <c r="C96" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="D96" s="13">
-        <v>2541</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97"/>
-      <c r="C97" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D97" s="13">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>349</v>
       </c>
       <c r="B98" t="s">
         <v>354</v>
       </c>
-      <c r="C98" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="D98" s="13">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B99" s="13">
-        <v>252469</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D99" s="13">
-        <v>1240869</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="B99" s="12">
+        <v>168679</v>
+      </c>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B100" s="13">
+      <c r="B100" s="12">
         <v>237944</v>
       </c>
       <c r="C100"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" s="12">
+        <v>252469</v>
+      </c>
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B102" s="12">
         <v>218813</v>
       </c>
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B102" s="13">
-        <v>189434</v>
-      </c>
       <c r="C102"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B103" s="13">
+      <c r="B103" s="12">
         <v>173530</v>
       </c>
       <c r="C103"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="B104" s="13">
-        <v>168679</v>
+        <v>312</v>
+      </c>
+      <c r="B104" s="12">
+        <v>189434</v>
       </c>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B105" s="13">
+      <c r="B105" s="12">
         <v>1240869</v>
       </c>
       <c r="C105"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B106"/>
       <c r="C106"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B107"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B108"/>
       <c r="C108"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B111"/>
       <c r="C111"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B112"/>
       <c r="C112"/>
     </row>
@@ -27459,368 +25991,355 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC37101-9D37-4AD8-9636-33E11A554E12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E47359-994E-47B0-9B37-8A8816673FC7}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="22">
-        <v>1240869</v>
-      </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="23">
-        <v>801165</v>
-      </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="10"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="17">
+        <v>1240869</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="40" t="s">
-        <v>359</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -27828,19 +26347,15 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="10"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
@@ -27848,19 +26363,17 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="10"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -27868,19 +26381,15 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="10"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
@@ -27888,19 +26397,17 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="10"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="21">
+        <v>801165</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -27908,19 +26415,15 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="10"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="10"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -27928,19 +26431,15 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="10"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -27948,15 +26447,15 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -27964,15 +26463,15 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -27980,62 +26479,67 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="25">
+        <f ca="1">NOW()</f>
+        <v>45382.374399305554</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -28044,29 +26548,22 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="L5:M7"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M17"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B2:G3"/>
+  <mergeCells count="12">
+    <mergeCell ref="K31:M32"/>
+    <mergeCell ref="B23:C24"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B31:F32"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
